--- a/Boycott editing.xlsx
+++ b/Boycott editing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Global Village\Desktop\gaza\BOYCOTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gaza\fine\Classified-main\Classified\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27C7C22-FBC9-4D37-8DFF-0099F1FA9D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FD7AF8-7A79-4732-9DAD-6AE092709E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -681,7 +681,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,6 +826,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="21">
@@ -1012,7 +1018,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1036,63 +1042,39 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1377,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E3:J193"/>
+  <dimension ref="E3:H193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G199" sqref="G199"/>
+    <sheetView tabSelected="1" topLeftCell="C218" workbookViewId="0">
+      <selection activeCell="F182" sqref="F182:G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,1162 +1646,1162 @@
       <c r="H37" s="17"/>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E41" s="28"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="24"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="15"/>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E42" s="28"/>
-      <c r="F42" s="26" t="s">
+      <c r="E42" s="17"/>
+      <c r="F42" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="15"/>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E43" s="28"/>
-      <c r="F43" s="23" t="s">
+      <c r="E43" s="17"/>
+      <c r="F43" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="28"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E44" s="28"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="18" t="s">
         <v>41</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="28"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E45" s="28"/>
+      <c r="E45" s="17"/>
       <c r="F45" s="18" t="s">
         <v>42</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H45" s="28"/>
+      <c r="H45" s="17"/>
     </row>
     <row r="46" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E46" s="28"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G46" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H46" s="28"/>
+      <c r="H46" s="17"/>
     </row>
     <row r="47" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E47" s="28"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="18" t="s">
         <v>44</v>
       </c>
       <c r="G47" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H47" s="28"/>
+      <c r="H47" s="17"/>
     </row>
     <row r="48" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E48" s="28"/>
+      <c r="E48" s="17"/>
       <c r="F48" s="18" t="s">
         <v>88</v>
       </c>
       <c r="G48" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H48" s="28"/>
+      <c r="H48" s="17"/>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E49" s="28"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="24"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="15"/>
     </row>
     <row r="54" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E54" s="34"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="31"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="15"/>
     </row>
     <row r="55" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E55" s="34"/>
-      <c r="F55" s="33" t="s">
+      <c r="E55" s="17"/>
+      <c r="F55" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="31"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="15"/>
     </row>
     <row r="56" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E56" s="34"/>
-      <c r="F56" s="30" t="s">
+      <c r="E56" s="17"/>
+      <c r="F56" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G56" s="30" t="s">
+      <c r="G56" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="34"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E57" s="34"/>
+      <c r="E57" s="17"/>
       <c r="F57" s="18" t="s">
         <v>51</v>
       </c>
       <c r="G57" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H57" s="34"/>
+      <c r="H57" s="17"/>
     </row>
     <row r="58" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E58" s="34"/>
+      <c r="E58" s="17"/>
       <c r="F58" s="18" t="s">
         <v>52</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H58" s="34"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E59" s="34"/>
+      <c r="E59" s="17"/>
       <c r="F59" s="18" t="s">
         <v>76</v>
       </c>
       <c r="G59" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H59" s="34"/>
+      <c r="H59" s="17"/>
     </row>
     <row r="60" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E60" s="34"/>
+      <c r="E60" s="17"/>
       <c r="F60" s="18" t="s">
         <v>53</v>
       </c>
       <c r="G60" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H60" s="34"/>
+      <c r="H60" s="17"/>
     </row>
     <row r="61" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E61" s="34"/>
+      <c r="E61" s="17"/>
       <c r="F61" s="18" t="s">
         <v>54</v>
       </c>
       <c r="G61" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H61" s="34"/>
+      <c r="H61" s="17"/>
     </row>
     <row r="62" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E62" s="34"/>
+      <c r="E62" s="17"/>
       <c r="F62" s="18" t="s">
         <v>55</v>
       </c>
       <c r="G62" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H62" s="34"/>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E63" s="34"/>
+      <c r="E63" s="17"/>
       <c r="F63" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G63" s="35"/>
-      <c r="H63" s="34"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="17"/>
     </row>
     <row r="64" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E64" s="34"/>
+      <c r="E64" s="17"/>
       <c r="F64" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G64" s="35"/>
-      <c r="H64" s="34"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="17"/>
     </row>
     <row r="65" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E65" s="34"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="34"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="17"/>
     </row>
     <row r="70" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E70" s="41"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
     </row>
     <row r="71" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E71" s="41"/>
-      <c r="F71" s="39" t="s">
+      <c r="E71" s="17"/>
+      <c r="F71" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="G71" s="40"/>
-      <c r="H71" s="36"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="12"/>
     </row>
     <row r="72" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E72" s="41"/>
-      <c r="F72" s="38" t="s">
+      <c r="E72" s="17"/>
+      <c r="F72" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H72" s="41"/>
+      <c r="H72" s="17"/>
     </row>
     <row r="73" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E73" s="41"/>
+      <c r="E73" s="17"/>
       <c r="F73" s="18" t="s">
         <v>77</v>
       </c>
       <c r="G73" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="H73" s="41"/>
+      <c r="H73" s="17"/>
     </row>
     <row r="74" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E74" s="41"/>
+      <c r="E74" s="17"/>
       <c r="F74" s="18" t="s">
         <v>65</v>
       </c>
       <c r="G74" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H74" s="41"/>
+      <c r="H74" s="17"/>
     </row>
     <row r="75" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E75" s="41"/>
+      <c r="E75" s="17"/>
       <c r="F75" s="18" t="s">
         <v>72</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H75" s="41"/>
+      <c r="H75" s="17"/>
     </row>
     <row r="76" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E76" s="41"/>
+      <c r="E76" s="17"/>
       <c r="F76" s="18" t="s">
         <v>66</v>
       </c>
       <c r="G76" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="H76" s="41"/>
+      <c r="H76" s="17"/>
     </row>
     <row r="77" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E77" s="41"/>
+      <c r="E77" s="17"/>
       <c r="F77" s="18" t="s">
         <v>73</v>
       </c>
       <c r="G77" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H77" s="41"/>
+      <c r="H77" s="17"/>
     </row>
     <row r="78" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E78" s="41"/>
+      <c r="E78" s="17"/>
       <c r="F78" s="18" t="s">
         <v>74</v>
       </c>
       <c r="G78" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H78" s="41"/>
+      <c r="H78" s="17"/>
     </row>
     <row r="79" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E79" s="41"/>
+      <c r="E79" s="17"/>
       <c r="F79" s="19"/>
       <c r="G79" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H79" s="41"/>
+      <c r="H79" s="17"/>
     </row>
     <row r="80" spans="5:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="37"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="27"/>
     </row>
     <row r="83" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E83" s="45"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
     </row>
     <row r="84" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E84" s="45"/>
-      <c r="F84" s="44" t="s">
+      <c r="E84" s="17"/>
+      <c r="F84" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="G84" s="44"/>
-      <c r="H84" s="42"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E85" s="45"/>
-      <c r="F85" s="43" t="s">
+      <c r="E85" s="17"/>
+      <c r="F85" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G85" s="43" t="s">
+      <c r="G85" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H85" s="45"/>
+      <c r="H85" s="17"/>
     </row>
     <row r="86" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E86" s="45"/>
+      <c r="E86" s="17"/>
       <c r="F86" s="18" t="s">
         <v>80</v>
       </c>
       <c r="G86" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="H86" s="45"/>
+      <c r="H86" s="17"/>
     </row>
     <row r="87" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E87" s="45"/>
+      <c r="E87" s="17"/>
       <c r="F87" s="18" t="s">
         <v>81</v>
       </c>
       <c r="G87" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="H87" s="45"/>
+      <c r="H87" s="17"/>
     </row>
     <row r="88" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E88" s="45"/>
+      <c r="E88" s="17"/>
       <c r="F88" s="18" t="s">
         <v>82</v>
       </c>
       <c r="G88" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H88" s="45"/>
+      <c r="H88" s="17"/>
     </row>
     <row r="89" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E89" s="45"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="42"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
     </row>
     <row r="93" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E93" s="49"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
     </row>
     <row r="94" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E94" s="49"/>
-      <c r="F94" s="48" t="s">
+      <c r="E94" s="17"/>
+      <c r="F94" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G94" s="48"/>
-      <c r="H94" s="46"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="12"/>
     </row>
     <row r="95" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E95" s="49"/>
-      <c r="F95" s="47" t="s">
+      <c r="E95" s="17"/>
+      <c r="F95" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G95" s="47" t="s">
+      <c r="G95" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H95" s="49"/>
+      <c r="H95" s="17"/>
     </row>
     <row r="96" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E96" s="49"/>
+      <c r="E96" s="17"/>
       <c r="F96" s="18" t="s">
         <v>96</v>
       </c>
       <c r="G96" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H96" s="49"/>
+      <c r="H96" s="17"/>
     </row>
     <row r="97" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E97" s="49"/>
+      <c r="E97" s="17"/>
       <c r="F97" s="18" t="s">
         <v>87</v>
       </c>
       <c r="G97" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H97" s="49"/>
+      <c r="H97" s="17"/>
     </row>
     <row r="98" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E98" s="49"/>
+      <c r="E98" s="17"/>
       <c r="F98" s="18" t="s">
         <v>97</v>
       </c>
       <c r="G98" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="H98" s="49"/>
+      <c r="H98" s="17"/>
     </row>
     <row r="99" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E99" s="49"/>
+      <c r="E99" s="17"/>
       <c r="F99" s="18" t="s">
         <v>98</v>
       </c>
       <c r="G99" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H99" s="49"/>
+      <c r="H99" s="17"/>
     </row>
     <row r="100" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E100" s="49"/>
+      <c r="E100" s="17"/>
       <c r="F100" s="18" t="s">
         <v>99</v>
       </c>
       <c r="G100" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H100" s="49"/>
+      <c r="H100" s="17"/>
     </row>
     <row r="101" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E101" s="49"/>
+      <c r="E101" s="17"/>
       <c r="F101" s="18" t="s">
         <v>100</v>
       </c>
       <c r="G101" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H101" s="49"/>
+      <c r="H101" s="17"/>
     </row>
     <row r="102" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E102" s="49"/>
+      <c r="E102" s="17"/>
       <c r="F102" s="18" t="s">
         <v>101</v>
       </c>
       <c r="G102" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="H102" s="49"/>
+      <c r="H102" s="17"/>
     </row>
     <row r="103" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E103" s="49"/>
+      <c r="E103" s="17"/>
       <c r="F103" s="18" t="s">
         <v>102</v>
       </c>
       <c r="G103" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H103" s="49"/>
+      <c r="H103" s="17"/>
     </row>
     <row r="104" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E104" s="49"/>
+      <c r="E104" s="17"/>
       <c r="F104" s="18" t="s">
         <v>103</v>
       </c>
       <c r="G104" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="H104" s="49"/>
+      <c r="H104" s="17"/>
     </row>
     <row r="105" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E105" s="49"/>
+      <c r="E105" s="17"/>
       <c r="F105" s="19"/>
       <c r="G105" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="H105" s="49"/>
+      <c r="H105" s="17"/>
     </row>
     <row r="106" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E106" s="49"/>
+      <c r="E106" s="17"/>
       <c r="F106" s="19"/>
       <c r="G106" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="H106" s="49"/>
+      <c r="H106" s="17"/>
     </row>
     <row r="107" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E107" s="49"/>
+      <c r="E107" s="17"/>
       <c r="F107" s="19"/>
       <c r="G107" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="H107" s="49"/>
+      <c r="H107" s="17"/>
     </row>
     <row r="108" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E108" s="49"/>
+      <c r="E108" s="17"/>
       <c r="F108" s="19"/>
       <c r="G108" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="H108" s="49"/>
+      <c r="H108" s="17"/>
     </row>
     <row r="109" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E109" s="49"/>
+      <c r="E109" s="17"/>
       <c r="F109" s="19"/>
       <c r="G109" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="H109" s="49"/>
+      <c r="H109" s="17"/>
     </row>
     <row r="110" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E110" s="49"/>
+      <c r="E110" s="17"/>
       <c r="F110" s="19"/>
       <c r="G110" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="H110" s="49"/>
+      <c r="H110" s="17"/>
     </row>
     <row r="111" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E111" s="49"/>
+      <c r="E111" s="17"/>
       <c r="F111" s="19"/>
       <c r="G111" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="H111" s="49"/>
+      <c r="H111" s="17"/>
     </row>
     <row r="112" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E112" s="49"/>
+      <c r="E112" s="17"/>
       <c r="F112" s="19"/>
       <c r="G112" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H112" s="49"/>
+      <c r="H112" s="17"/>
     </row>
     <row r="113" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E113" s="49"/>
+      <c r="E113" s="17"/>
       <c r="F113" s="19"/>
       <c r="G113" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="H113" s="49"/>
+      <c r="H113" s="17"/>
     </row>
     <row r="114" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E114" s="49"/>
+      <c r="E114" s="17"/>
       <c r="F114" s="19"/>
       <c r="G114" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H114" s="49"/>
+      <c r="H114" s="17"/>
     </row>
     <row r="115" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E115" s="49"/>
+      <c r="E115" s="17"/>
       <c r="F115" s="19"/>
       <c r="G115" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="H115" s="49"/>
+      <c r="H115" s="17"/>
     </row>
     <row r="116" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E116" s="49"/>
+      <c r="E116" s="17"/>
       <c r="F116" s="19"/>
       <c r="G116" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="H116" s="49"/>
+      <c r="H116" s="17"/>
     </row>
     <row r="117" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E117" s="49"/>
+      <c r="E117" s="17"/>
       <c r="F117" s="19"/>
       <c r="G117" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="H117" s="49"/>
+      <c r="H117" s="17"/>
     </row>
     <row r="118" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E118" s="49"/>
+      <c r="E118" s="17"/>
       <c r="F118" s="19"/>
       <c r="G118" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="H118" s="49"/>
+      <c r="H118" s="17"/>
     </row>
     <row r="119" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E119" s="49"/>
+      <c r="E119" s="17"/>
       <c r="F119" s="19"/>
       <c r="G119" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="H119" s="50"/>
+      <c r="H119" s="32"/>
     </row>
     <row r="120" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E120" s="49"/>
+      <c r="E120" s="17"/>
       <c r="F120" s="19"/>
       <c r="G120" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H120" s="49"/>
+      <c r="H120" s="17"/>
     </row>
     <row r="121" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E121" s="49"/>
+      <c r="E121" s="17"/>
       <c r="F121" s="19"/>
       <c r="G121" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H121" s="49"/>
+      <c r="H121" s="17"/>
     </row>
     <row r="122" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E122" s="49"/>
+      <c r="E122" s="17"/>
       <c r="F122" s="19"/>
-      <c r="G122" s="51" t="s">
+      <c r="G122" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="H122" s="49"/>
+      <c r="H122" s="17"/>
     </row>
     <row r="123" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E123" s="49"/>
+      <c r="E123" s="17"/>
       <c r="F123" s="19"/>
       <c r="G123" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="H123" s="49"/>
+      <c r="H123" s="17"/>
     </row>
     <row r="124" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E124" s="49"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="49"/>
-      <c r="H124" s="49"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
     </row>
     <row r="129" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E129" s="55"/>
-      <c r="F129" s="52"/>
-      <c r="G129" s="52"/>
-      <c r="H129" s="52"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
     </row>
     <row r="130" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E130" s="55"/>
-      <c r="F130" s="54" t="s">
+      <c r="E130" s="17"/>
+      <c r="F130" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="G130" s="54"/>
-      <c r="H130" s="52"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="12"/>
     </row>
     <row r="131" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E131" s="55"/>
-      <c r="F131" s="53" t="s">
+      <c r="E131" s="17"/>
+      <c r="F131" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G131" s="53" t="s">
+      <c r="G131" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H131" s="55"/>
+      <c r="H131" s="17"/>
     </row>
     <row r="132" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E132" s="55"/>
+      <c r="E132" s="17"/>
       <c r="F132" s="18" t="s">
         <v>168</v>
       </c>
       <c r="G132" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H132" s="55"/>
+      <c r="H132" s="17"/>
     </row>
     <row r="133" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E133" s="55"/>
+      <c r="E133" s="17"/>
       <c r="F133" s="18" t="s">
         <v>167</v>
       </c>
       <c r="G133" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="H133" s="55"/>
+      <c r="H133" s="17"/>
     </row>
     <row r="134" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E134" s="55"/>
+      <c r="E134" s="17"/>
       <c r="F134" s="18" t="s">
         <v>166</v>
       </c>
       <c r="G134" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="H134" s="55"/>
+      <c r="H134" s="17"/>
     </row>
     <row r="135" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E135" s="55"/>
+      <c r="E135" s="17"/>
       <c r="F135" s="18" t="s">
         <v>165</v>
       </c>
       <c r="G135" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="H135" s="55"/>
+      <c r="H135" s="17"/>
     </row>
     <row r="136" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E136" s="55"/>
+      <c r="E136" s="17"/>
       <c r="F136" s="18" t="s">
         <v>164</v>
       </c>
       <c r="G136" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="H136" s="55"/>
+      <c r="H136" s="17"/>
     </row>
     <row r="137" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E137" s="55"/>
+      <c r="E137" s="17"/>
       <c r="F137" s="18" t="s">
         <v>163</v>
       </c>
       <c r="G137" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H137" s="55"/>
+      <c r="H137" s="17"/>
     </row>
     <row r="138" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E138" s="55"/>
+      <c r="E138" s="17"/>
       <c r="F138" s="18" t="s">
         <v>162</v>
       </c>
       <c r="G138" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="H138" s="55"/>
+      <c r="H138" s="17"/>
     </row>
     <row r="139" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E139" s="55"/>
+      <c r="E139" s="17"/>
       <c r="F139" s="18" t="s">
         <v>161</v>
       </c>
       <c r="G139" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="H139" s="55"/>
+      <c r="H139" s="17"/>
     </row>
     <row r="140" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E140" s="55"/>
+      <c r="E140" s="17"/>
       <c r="F140" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="G140" s="56" t="s">
+      <c r="G140" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="H140" s="55"/>
+      <c r="H140" s="17"/>
     </row>
     <row r="141" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E141" s="55"/>
+      <c r="E141" s="17"/>
       <c r="F141" s="18" t="s">
         <v>159</v>
       </c>
       <c r="G141" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="H141" s="55"/>
+      <c r="H141" s="17"/>
     </row>
     <row r="142" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E142" s="55"/>
+      <c r="E142" s="17"/>
       <c r="F142" s="18" t="s">
         <v>158</v>
       </c>
       <c r="G142" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="H142" s="55"/>
+      <c r="H142" s="17"/>
     </row>
     <row r="143" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E143" s="55"/>
+      <c r="E143" s="17"/>
       <c r="F143" s="18" t="s">
         <v>157</v>
       </c>
       <c r="G143" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="H143" s="55"/>
+      <c r="H143" s="17"/>
     </row>
     <row r="144" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E144" s="55"/>
+      <c r="E144" s="17"/>
       <c r="F144" s="18" t="s">
         <v>156</v>
       </c>
       <c r="G144" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="H144" s="55"/>
+      <c r="H144" s="17"/>
     </row>
     <row r="145" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E145" s="55"/>
+      <c r="E145" s="17"/>
       <c r="F145" s="18" t="s">
         <v>155</v>
       </c>
       <c r="G145" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="H145" s="55"/>
+      <c r="H145" s="17"/>
     </row>
     <row r="146" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E146" s="55"/>
+      <c r="E146" s="17"/>
       <c r="F146" s="18" t="s">
         <v>154</v>
       </c>
       <c r="G146" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="H146" s="55"/>
+      <c r="H146" s="17"/>
     </row>
     <row r="147" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E147" s="55"/>
+      <c r="E147" s="17"/>
       <c r="F147" s="18" t="s">
         <v>153</v>
       </c>
       <c r="G147" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="H147" s="55"/>
+      <c r="H147" s="17"/>
     </row>
     <row r="148" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E148" s="55"/>
+      <c r="E148" s="17"/>
       <c r="F148" s="18" t="s">
         <v>152</v>
       </c>
       <c r="G148" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="H148" s="55"/>
+      <c r="H148" s="17"/>
     </row>
     <row r="149" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E149" s="55"/>
+      <c r="E149" s="17"/>
       <c r="F149" s="18" t="s">
         <v>151</v>
       </c>
       <c r="G149" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="H149" s="55"/>
+      <c r="H149" s="17"/>
     </row>
     <row r="150" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E150" s="55"/>
+      <c r="E150" s="17"/>
       <c r="F150" s="18" t="s">
         <v>150</v>
       </c>
       <c r="G150" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="H150" s="55"/>
+      <c r="H150" s="17"/>
     </row>
     <row r="151" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E151" s="55"/>
+      <c r="E151" s="17"/>
       <c r="F151" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="G151" s="35"/>
-      <c r="H151" s="55"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="17"/>
     </row>
     <row r="152" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E152" s="55"/>
+      <c r="E152" s="17"/>
       <c r="F152" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="G152" s="35"/>
-      <c r="H152" s="55"/>
+      <c r="G152" s="26"/>
+      <c r="H152" s="17"/>
     </row>
     <row r="153" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E153" s="55"/>
+      <c r="E153" s="17"/>
       <c r="F153" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="G153" s="35"/>
-      <c r="H153" s="55"/>
+      <c r="G153" s="26"/>
+      <c r="H153" s="17"/>
     </row>
     <row r="154" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E154" s="55"/>
+      <c r="E154" s="17"/>
       <c r="F154" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="G154" s="35"/>
-      <c r="H154" s="55"/>
+      <c r="G154" s="26"/>
+      <c r="H154" s="17"/>
     </row>
     <row r="155" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E155" s="55"/>
+      <c r="E155" s="17"/>
       <c r="F155" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="G155" s="35"/>
-      <c r="H155" s="55"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="17"/>
     </row>
     <row r="156" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E156" s="55"/>
-      <c r="F156" s="52"/>
-      <c r="G156" s="52"/>
-      <c r="H156" s="55"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="17"/>
     </row>
     <row r="160" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E160" s="61"/>
-      <c r="F160" s="57"/>
-      <c r="G160" s="57"/>
-      <c r="H160" s="57"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
     </row>
     <row r="161" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E161" s="61"/>
-      <c r="F161" s="59" t="s">
+      <c r="E161" s="17"/>
+      <c r="F161" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="G161" s="60"/>
-      <c r="H161" s="57"/>
+      <c r="G161" s="37"/>
+      <c r="H161" s="12"/>
     </row>
     <row r="162" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E162" s="61"/>
-      <c r="F162" s="58" t="s">
+      <c r="E162" s="17"/>
+      <c r="F162" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G162" s="58" t="s">
+      <c r="G162" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H162" s="61"/>
+      <c r="H162" s="17"/>
     </row>
     <row r="163" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E163" s="61"/>
+      <c r="E163" s="17"/>
       <c r="F163" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="G163" s="62" t="s">
+      <c r="G163" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="H163" s="61"/>
+      <c r="H163" s="17"/>
     </row>
     <row r="164" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E164" s="61"/>
+      <c r="E164" s="17"/>
       <c r="F164" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="G164" s="56" t="s">
+      <c r="G164" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="H164" s="61"/>
+      <c r="H164" s="17"/>
     </row>
     <row r="165" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E165" s="61"/>
+      <c r="E165" s="17"/>
       <c r="F165" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="G165" s="62" t="s">
+      <c r="G165" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="H165" s="61"/>
+      <c r="H165" s="17"/>
     </row>
     <row r="166" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E166" s="61"/>
+      <c r="E166" s="17"/>
       <c r="F166" s="18" t="s">
         <v>174</v>
       </c>
       <c r="G166" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="H166" s="61"/>
+      <c r="H166" s="17"/>
     </row>
     <row r="167" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E167" s="61"/>
+      <c r="E167" s="17"/>
       <c r="F167" s="18" t="s">
         <v>175</v>
       </c>
       <c r="G167" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="H167" s="61"/>
+      <c r="H167" s="17"/>
     </row>
     <row r="168" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E168" s="61"/>
+      <c r="E168" s="17"/>
       <c r="F168" s="18" t="s">
         <v>176</v>
       </c>
       <c r="G168" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="H168" s="61"/>
+      <c r="H168" s="17"/>
     </row>
     <row r="169" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E169" s="61"/>
+      <c r="E169" s="17"/>
       <c r="F169" s="18" t="s">
         <v>177</v>
       </c>
       <c r="G169" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="H169" s="61"/>
+      <c r="H169" s="17"/>
     </row>
     <row r="170" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E170" s="61"/>
+      <c r="E170" s="17"/>
       <c r="F170" s="18" t="s">
         <v>178</v>
       </c>
       <c r="G170" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="H170" s="61"/>
+      <c r="H170" s="17"/>
     </row>
     <row r="171" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E171" s="61"/>
+      <c r="E171" s="17"/>
       <c r="F171" s="18" t="s">
         <v>179</v>
       </c>
       <c r="G171" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="H171" s="61"/>
+      <c r="H171" s="17"/>
     </row>
     <row r="172" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E172" s="61"/>
+      <c r="E172" s="17"/>
       <c r="F172" s="18" t="s">
         <v>180</v>
       </c>
       <c r="G172" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="H172" s="61"/>
+      <c r="H172" s="17"/>
     </row>
     <row r="173" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E173" s="61"/>
+      <c r="E173" s="17"/>
       <c r="F173" s="18" t="s">
         <v>184</v>
       </c>
       <c r="G173" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="H173" s="61"/>
+      <c r="H173" s="17"/>
     </row>
     <row r="174" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E174" s="61"/>
+      <c r="E174" s="17"/>
       <c r="F174" s="18" t="s">
         <v>185</v>
       </c>
       <c r="G174" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="H174" s="61"/>
+      <c r="H174" s="17"/>
     </row>
     <row r="175" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E175" s="61"/>
-      <c r="F175" s="63" t="s">
+      <c r="E175" s="17"/>
+      <c r="F175" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="G175" s="35"/>
-      <c r="H175" s="61"/>
+      <c r="G175" s="26"/>
+      <c r="H175" s="17"/>
     </row>
     <row r="176" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E176" s="61"/>
+      <c r="E176" s="17"/>
       <c r="F176" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="G176" s="35"/>
-      <c r="H176" s="61"/>
+      <c r="G176" s="26"/>
+      <c r="H176" s="17"/>
     </row>
     <row r="177" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E177" s="61"/>
-      <c r="F177" s="57"/>
-      <c r="G177" s="57"/>
-      <c r="H177" s="61"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="17"/>
     </row>
     <row r="181" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E181" s="68"/>
-      <c r="F181" s="64"/>
-      <c r="G181" s="64"/>
-      <c r="H181" s="64"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
     </row>
     <row r="182" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E182" s="68"/>
-      <c r="F182" s="66" t="s">
+      <c r="E182" s="17"/>
+      <c r="F182" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="G182" s="67"/>
-      <c r="H182" s="64"/>
+      <c r="G182" s="41"/>
+      <c r="H182" s="12"/>
     </row>
     <row r="183" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E183" s="68"/>
-      <c r="F183" s="65" t="s">
+      <c r="E183" s="17"/>
+      <c r="F183" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G183" s="65" t="s">
+      <c r="G183" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H183" s="68"/>
+      <c r="H183" s="17"/>
     </row>
     <row r="184" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E184" s="68"/>
-      <c r="F184" s="69" t="s">
+      <c r="E184" s="17"/>
+      <c r="F184" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="G184" s="71" t="s">
+      <c r="G184" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="H184" s="68"/>
+      <c r="H184" s="17"/>
     </row>
     <row r="185" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E185" s="68"/>
+      <c r="E185" s="17"/>
       <c r="F185" s="18" t="s">
         <v>198</v>
       </c>
       <c r="G185" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="H185" s="68"/>
+      <c r="H185" s="17"/>
     </row>
     <row r="186" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E186" s="68"/>
+      <c r="E186" s="17"/>
       <c r="F186" s="18" t="s">
         <v>199</v>
       </c>
       <c r="G186" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="H186" s="68"/>
+      <c r="H186" s="17"/>
     </row>
     <row r="187" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E187" s="68"/>
+      <c r="E187" s="17"/>
       <c r="F187" s="18" t="s">
         <v>200</v>
       </c>
       <c r="G187" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="H187" s="68"/>
+      <c r="H187" s="17"/>
     </row>
     <row r="188" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E188" s="68"/>
+      <c r="E188" s="17"/>
       <c r="F188" s="18" t="s">
         <v>201</v>
       </c>
       <c r="G188" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="H188" s="68"/>
+      <c r="H188" s="17"/>
     </row>
     <row r="189" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E189" s="68"/>
+      <c r="E189" s="17"/>
       <c r="F189" s="18" t="s">
         <v>202</v>
       </c>
       <c r="G189" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="H189" s="68"/>
+      <c r="H189" s="17"/>
     </row>
     <row r="190" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E190" s="68"/>
+      <c r="E190" s="17"/>
       <c r="F190" s="18" t="s">
         <v>203</v>
       </c>
       <c r="G190" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="H190" s="68"/>
+      <c r="H190" s="17"/>
     </row>
     <row r="191" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E191" s="68"/>
-      <c r="F191" s="70"/>
+      <c r="E191" s="17"/>
+      <c r="F191" s="43"/>
       <c r="G191" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="H191" s="68"/>
+      <c r="H191" s="17"/>
     </row>
     <row r="192" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E192" s="68"/>
-      <c r="F192" s="70"/>
+      <c r="E192" s="17"/>
+      <c r="F192" s="43"/>
       <c r="G192" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="H192" s="68"/>
+      <c r="H192" s="17"/>
     </row>
     <row r="193" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E193" s="68"/>
-      <c r="F193" s="64"/>
-      <c r="G193" s="64"/>
-      <c r="H193" s="64"/>
+      <c r="E193" s="17"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
